--- a/2014_Dengue_extracted.xlsx
+++ b/2014_Dengue_extracted.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e2db956eb42fcc03/Dokumente/GitHub/topic04_team04/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/frederik/Documents/GitHub/Projekt/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{460701F6-C618-4962-8CC6-8E0AC38309CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B543D1CE-84E7-4063-A54C-2A37604D0738}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A568F44E-0257-5148-A86D-E62A905C9BF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="23260" windowHeight="12460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="1" r:id="rId1"/>
@@ -22,9 +22,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="90">
   <si>
-    <t>Reporting areas</t>
-  </si>
-  <si>
     <t>Jan</t>
   </si>
   <si>
@@ -290,6 +287,9 @@
   </si>
   <si>
     <t>Yasothon</t>
+  </si>
+  <si>
+    <t>Reporting_areas</t>
   </si>
 </sst>
 </file>
@@ -388,7 +388,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -449,9 +449,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -489,9 +489,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -524,26 +524,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -576,26 +559,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -771,71 +737,69 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="36.6640625" customWidth="1"/>
-    <col min="2" max="2" width="10.6640625" customWidth="1"/>
-    <col min="3" max="3" width="10.88671875" customWidth="1"/>
-    <col min="4" max="4" width="7.5546875" customWidth="1"/>
-    <col min="5" max="5" width="11.109375" customWidth="1"/>
-    <col min="6" max="6" width="10.88671875" customWidth="1"/>
-    <col min="7" max="7" width="11.109375" customWidth="1"/>
+    <col min="1" max="1" width="36.59765625" customWidth="1"/>
+    <col min="2" max="2" width="10.59765625" customWidth="1"/>
+    <col min="3" max="3" width="10.796875" customWidth="1"/>
+    <col min="4" max="4" width="7.59765625" customWidth="1"/>
+    <col min="5" max="5" width="11.19921875" customWidth="1"/>
+    <col min="6" max="6" width="10.796875" customWidth="1"/>
+    <col min="7" max="7" width="11.19921875" customWidth="1"/>
     <col min="8" max="8" width="8" customWidth="1"/>
-    <col min="9" max="9" width="10.88671875" customWidth="1"/>
+    <col min="9" max="9" width="10.796875" customWidth="1"/>
     <col min="10" max="10" width="10" customWidth="1"/>
-    <col min="11" max="11" width="10.6640625" customWidth="1"/>
-    <col min="12" max="12" width="8.21875" customWidth="1"/>
+    <col min="11" max="11" width="10.59765625" customWidth="1"/>
+    <col min="12" max="12" width="8.19921875" customWidth="1"/>
     <col min="13" max="13" width="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="5" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>13</v>
       </c>
       <c r="B2" s="7">
         <v>0</v>
@@ -874,9 +838,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B3" s="7">
         <v>4</v>
@@ -915,9 +879,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B4" s="7">
         <v>405</v>
@@ -956,9 +920,9 @@
         <v>476</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B5" s="7">
         <v>3</v>
@@ -997,9 +961,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B6" s="7">
         <v>6</v>
@@ -1038,9 +1002,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B7" s="7">
         <v>14</v>
@@ -1079,9 +1043,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B8" s="7">
         <v>2</v>
@@ -1120,9 +1084,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B9" s="7">
         <v>5</v>
@@ -1161,9 +1125,9 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B10" s="7">
         <v>13</v>
@@ -1202,9 +1166,9 @@
         <v>74</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" s="7">
         <v>12</v>
@@ -1243,9 +1207,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" s="7">
         <v>15</v>
@@ -1284,9 +1248,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B13" s="7">
         <v>44</v>
@@ -1325,9 +1289,9 @@
         <v>81</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B14" s="7">
         <v>20</v>
@@ -1366,9 +1330,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B15" s="7">
         <v>4</v>
@@ -1407,9 +1371,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B16" s="7">
         <v>10</v>
@@ -1448,9 +1412,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B17" s="7">
         <v>13</v>
@@ -1489,9 +1453,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B18" s="7">
         <v>6</v>
@@ -1530,9 +1494,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B19" s="7">
         <v>25</v>
@@ -1571,9 +1535,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B20" s="7">
         <v>7</v>
@@ -1612,9 +1576,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B21" s="7">
         <v>0</v>
@@ -1653,9 +1617,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B22" s="7">
         <v>2</v>
@@ -1694,9 +1658,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B23" s="7">
         <v>20</v>
@@ -1735,9 +1699,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B24" s="7">
         <v>3</v>
@@ -1776,9 +1740,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B25" s="7">
         <v>11</v>
@@ -1817,9 +1781,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B26" s="7">
         <v>2</v>
@@ -1858,9 +1822,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B27" s="7">
         <v>4</v>
@@ -1899,9 +1863,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B28" s="7">
         <v>44</v>
@@ -1940,9 +1904,9 @@
         <v>122</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B29" s="7">
         <v>1</v>
@@ -1981,9 +1945,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B30" s="7">
         <v>20</v>
@@ -2022,9 +1986,9 @@
         <v>69</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B31" s="7">
         <v>12</v>
@@ -2063,9 +2027,9 @@
         <v>33</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B32" s="7">
         <v>106</v>
@@ -2104,9 +2068,9 @@
         <v>180</v>
       </c>
     </row>
-    <row r="33" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B33" s="7">
         <v>1</v>
@@ -2145,9 +2109,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B34" s="7">
         <v>78</v>
@@ -2186,9 +2150,9 @@
         <v>69</v>
       </c>
     </row>
-    <row r="35" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B35" s="7">
         <v>0</v>
@@ -2227,9 +2191,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B36" s="7">
         <v>2</v>
@@ -2268,9 +2232,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B37" s="7">
         <v>45</v>
@@ -2309,9 +2273,9 @@
         <v>54</v>
       </c>
     </row>
-    <row r="38" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B38" s="7">
         <v>25</v>
@@ -2350,9 +2314,9 @@
         <v>26</v>
       </c>
     </row>
-    <row r="39" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B39" s="7">
         <v>16</v>
@@ -2391,9 +2355,9 @@
         <v>57</v>
       </c>
     </row>
-    <row r="40" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B40" s="7">
         <v>88</v>
@@ -2432,9 +2396,9 @@
         <v>67</v>
       </c>
     </row>
-    <row r="41" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B41" s="7">
         <v>14</v>
@@ -2473,9 +2437,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B42" s="7">
         <v>54</v>
@@ -2514,9 +2478,9 @@
         <v>71</v>
       </c>
     </row>
-    <row r="43" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B43" s="7">
         <v>0</v>
@@ -2555,9 +2519,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="44" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B44" s="7">
         <v>5</v>
@@ -2596,9 +2560,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="45" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" ht="18" x14ac:dyDescent="0.15">
       <c r="A45" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B45" s="7">
         <v>26</v>
@@ -2637,9 +2601,9 @@
         <v>69</v>
       </c>
     </row>
-    <row r="46" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" ht="18" x14ac:dyDescent="0.15">
       <c r="A46" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B46" s="7">
         <v>13</v>
@@ -2678,9 +2642,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" ht="18" x14ac:dyDescent="0.15">
       <c r="A47" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B47" s="7">
         <v>3</v>
@@ -2719,9 +2683,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" ht="18" x14ac:dyDescent="0.15">
       <c r="A48" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B48" s="7">
         <v>4</v>
@@ -2760,9 +2724,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="49" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" ht="18" x14ac:dyDescent="0.15">
       <c r="A49" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B49" s="7">
         <v>84</v>
@@ -2801,9 +2765,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="50" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" ht="18" x14ac:dyDescent="0.15">
       <c r="A50" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B50" s="7">
         <v>9</v>
@@ -2842,9 +2806,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="51" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" ht="18" x14ac:dyDescent="0.15">
       <c r="A51" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B51" s="7">
         <v>4</v>
@@ -2883,9 +2847,9 @@
         <v>54</v>
       </c>
     </row>
-    <row r="52" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" ht="18" x14ac:dyDescent="0.15">
       <c r="A52" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B52" s="7">
         <v>4</v>
@@ -2924,9 +2888,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" ht="18" x14ac:dyDescent="0.15">
       <c r="A53" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B53" s="7">
         <v>31</v>
@@ -2965,9 +2929,9 @@
         <v>110</v>
       </c>
     </row>
-    <row r="54" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" ht="18" x14ac:dyDescent="0.15">
       <c r="A54" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B54" s="7">
         <v>35</v>
@@ -3006,9 +2970,9 @@
         <v>146</v>
       </c>
     </row>
-    <row r="55" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" ht="18" x14ac:dyDescent="0.15">
       <c r="A55" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B55" s="7">
         <v>2</v>
@@ -3047,9 +3011,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="56" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" ht="18" x14ac:dyDescent="0.15">
       <c r="A56" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B56" s="7">
         <v>3</v>
@@ -3088,9 +3052,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" ht="18" x14ac:dyDescent="0.15">
       <c r="A57" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B57" s="7">
         <v>0</v>
@@ -3129,9 +3093,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" ht="18" x14ac:dyDescent="0.15">
       <c r="A58" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B58" s="7">
         <v>68</v>
@@ -3170,9 +3134,9 @@
         <v>136</v>
       </c>
     </row>
-    <row r="59" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" ht="18" x14ac:dyDescent="0.15">
       <c r="A59" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B59" s="7">
         <v>26</v>
@@ -3211,9 +3175,9 @@
         <v>84</v>
       </c>
     </row>
-    <row r="60" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" ht="18" x14ac:dyDescent="0.15">
       <c r="A60" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B60" s="7">
         <v>3</v>
@@ -3252,9 +3216,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="61" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" ht="18" x14ac:dyDescent="0.15">
       <c r="A61" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B61" s="7">
         <v>27</v>
@@ -3293,9 +3257,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="62" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" ht="18" x14ac:dyDescent="0.15">
       <c r="A62" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B62" s="7">
         <v>14</v>
@@ -3334,9 +3298,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="63" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" ht="18" x14ac:dyDescent="0.15">
       <c r="A63" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B63" s="7">
         <v>4</v>
@@ -3375,9 +3339,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="64" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" ht="18" x14ac:dyDescent="0.15">
       <c r="A64" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B64" s="7">
         <v>2</v>
@@ -3416,9 +3380,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" ht="18" x14ac:dyDescent="0.15">
       <c r="A65" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B65" s="7">
         <v>87</v>
@@ -3457,9 +3421,9 @@
         <v>123</v>
       </c>
     </row>
-    <row r="66" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" ht="18" x14ac:dyDescent="0.15">
       <c r="A66" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B66" s="7">
         <v>10</v>
@@ -3498,9 +3462,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="67" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" ht="18" x14ac:dyDescent="0.15">
       <c r="A67" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B67" s="7">
         <v>10</v>
@@ -3539,9 +3503,9 @@
         <v>35</v>
       </c>
     </row>
-    <row r="68" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" ht="18" x14ac:dyDescent="0.15">
       <c r="A68" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B68" s="7">
         <v>35</v>
@@ -3580,9 +3544,9 @@
         <v>47</v>
       </c>
     </row>
-    <row r="69" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13" ht="18" x14ac:dyDescent="0.15">
       <c r="A69" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B69" s="7">
         <v>6</v>
@@ -3621,9 +3585,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="70" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" ht="18" x14ac:dyDescent="0.15">
       <c r="A70" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B70" s="7">
         <v>9</v>
@@ -3662,9 +3626,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="71" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" ht="18" x14ac:dyDescent="0.15">
       <c r="A71" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B71" s="7">
         <v>35</v>
@@ -3703,9 +3667,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="72" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13" ht="18" x14ac:dyDescent="0.15">
       <c r="A72" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B72" s="7">
         <v>5</v>
@@ -3744,9 +3708,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="73" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" ht="18" x14ac:dyDescent="0.15">
       <c r="A73" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B73" s="7">
         <v>7</v>
@@ -3785,9 +3749,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="74" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" ht="18" x14ac:dyDescent="0.15">
       <c r="A74" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B74" s="7">
         <v>2</v>
@@ -3826,9 +3790,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" ht="18" x14ac:dyDescent="0.15">
       <c r="A75" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B75" s="7">
         <v>3</v>
@@ -3867,9 +3831,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="76" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" ht="18" x14ac:dyDescent="0.15">
       <c r="A76" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B76" s="7">
         <v>0</v>
@@ -3908,9 +3872,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="77" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" ht="18" x14ac:dyDescent="0.15">
       <c r="A77" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B77" s="7">
         <v>15</v>
@@ -3949,9 +3913,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="78" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13" ht="18" x14ac:dyDescent="0.15">
       <c r="A78" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B78" s="7">
         <v>1</v>

--- a/2014_Dengue_extracted.xlsx
+++ b/2014_Dengue_extracted.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10514"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/frederik/Documents/GitHub/Projekt/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_fiona\Info\topic04_team04\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A568F44E-0257-5148-A86D-E62A905C9BF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="23260" windowHeight="12460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="498" windowWidth="23262" windowHeight="12462"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="1" r:id="rId1"/>
@@ -37,18 +36,9 @@
     <t>May</t>
   </si>
   <si>
-    <t>June</t>
-  </si>
-  <si>
-    <t>July</t>
-  </si>
-  <si>
     <t>Aug</t>
   </si>
   <si>
-    <t>Sept</t>
-  </si>
-  <si>
     <t>Oct</t>
   </si>
   <si>
@@ -290,12 +280,21 @@
   </si>
   <si>
     <t>Reporting_areas</t>
+  </si>
+  <si>
+    <t>Jun</t>
+  </si>
+  <si>
+    <t>Jul</t>
+  </si>
+  <si>
+    <t>Sep</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -413,7 +412,7 @@
         <xdr:cNvPr id="23" name="image11.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000017000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -449,9 +448,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -489,9 +488,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -526,7 +525,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -561,7 +560,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -734,31 +733,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="12.6" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="36.59765625" customWidth="1"/>
-    <col min="2" max="2" width="10.59765625" customWidth="1"/>
-    <col min="3" max="3" width="10.796875" customWidth="1"/>
-    <col min="4" max="4" width="7.59765625" customWidth="1"/>
-    <col min="5" max="5" width="11.19921875" customWidth="1"/>
-    <col min="6" max="6" width="10.796875" customWidth="1"/>
-    <col min="7" max="7" width="11.19921875" customWidth="1"/>
+    <col min="1" max="1" width="36.5859375" customWidth="1"/>
+    <col min="2" max="2" width="10.5859375" customWidth="1"/>
+    <col min="3" max="3" width="10.8203125" customWidth="1"/>
+    <col min="4" max="4" width="7.5859375" customWidth="1"/>
+    <col min="5" max="5" width="11.17578125" customWidth="1"/>
+    <col min="6" max="6" width="10.8203125" customWidth="1"/>
+    <col min="7" max="7" width="11.17578125" customWidth="1"/>
     <col min="8" max="8" width="8" customWidth="1"/>
-    <col min="9" max="9" width="10.796875" customWidth="1"/>
+    <col min="9" max="9" width="10.8203125" customWidth="1"/>
     <col min="10" max="10" width="10" customWidth="1"/>
-    <col min="11" max="11" width="10.59765625" customWidth="1"/>
-    <col min="12" max="12" width="8.19921875" customWidth="1"/>
+    <col min="11" max="11" width="10.5859375" customWidth="1"/>
+    <col min="12" max="12" width="8.17578125" customWidth="1"/>
     <col min="13" max="13" width="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -776,30 +777,30 @@
         <v>4</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="J1" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="L1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="M1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="5" t="s">
         <v>9</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="5" t="s">
-        <v>12</v>
       </c>
       <c r="B2" s="7">
         <v>0</v>
@@ -838,9 +839,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B3" s="7">
         <v>4</v>
@@ -879,9 +880,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B4" s="7">
         <v>405</v>
@@ -920,9 +921,9 @@
         <v>476</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B5" s="7">
         <v>3</v>
@@ -961,9 +962,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B6" s="7">
         <v>6</v>
@@ -1002,9 +1003,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B7" s="7">
         <v>14</v>
@@ -1043,9 +1044,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B8" s="7">
         <v>2</v>
@@ -1084,9 +1085,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B9" s="7">
         <v>5</v>
@@ -1125,9 +1126,9 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B10" s="7">
         <v>13</v>
@@ -1166,9 +1167,9 @@
         <v>74</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="5" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B11" s="7">
         <v>12</v>
@@ -1207,9 +1208,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B12" s="7">
         <v>15</v>
@@ -1248,9 +1249,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B13" s="7">
         <v>44</v>
@@ -1289,9 +1290,9 @@
         <v>81</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B14" s="7">
         <v>20</v>
@@ -1330,9 +1331,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B15" s="7">
         <v>4</v>
@@ -1371,9 +1372,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B16" s="7">
         <v>10</v>
@@ -1412,9 +1413,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B17" s="7">
         <v>13</v>
@@ -1453,9 +1454,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B18" s="7">
         <v>6</v>
@@ -1494,9 +1495,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B19" s="7">
         <v>25</v>
@@ -1535,9 +1536,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B20" s="7">
         <v>7</v>
@@ -1576,9 +1577,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B21" s="7">
         <v>0</v>
@@ -1617,9 +1618,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B22" s="7">
         <v>2</v>
@@ -1658,9 +1659,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B23" s="7">
         <v>20</v>
@@ -1699,9 +1700,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B24" s="7">
         <v>3</v>
@@ -1740,9 +1741,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B25" s="7">
         <v>11</v>
@@ -1781,9 +1782,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26" s="5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B26" s="7">
         <v>2</v>
@@ -1822,9 +1823,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B27" s="7">
         <v>4</v>
@@ -1863,9 +1864,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B28" s="7">
         <v>44</v>
@@ -1904,9 +1905,9 @@
         <v>122</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B29" s="7">
         <v>1</v>
@@ -1945,9 +1946,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A30" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B30" s="7">
         <v>20</v>
@@ -1986,9 +1987,9 @@
         <v>69</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A31" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B31" s="7">
         <v>12</v>
@@ -2027,9 +2028,9 @@
         <v>33</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A32" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B32" s="7">
         <v>106</v>
@@ -2068,9 +2069,9 @@
         <v>180</v>
       </c>
     </row>
-    <row r="33" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A33" s="5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B33" s="7">
         <v>1</v>
@@ -2109,9 +2110,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A34" s="5" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B34" s="7">
         <v>78</v>
@@ -2150,9 +2151,9 @@
         <v>69</v>
       </c>
     </row>
-    <row r="35" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A35" s="5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B35" s="7">
         <v>0</v>
@@ -2191,9 +2192,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A36" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B36" s="7">
         <v>2</v>
@@ -2232,9 +2233,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A37" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B37" s="7">
         <v>45</v>
@@ -2273,9 +2274,9 @@
         <v>54</v>
       </c>
     </row>
-    <row r="38" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A38" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B38" s="7">
         <v>25</v>
@@ -2314,9 +2315,9 @@
         <v>26</v>
       </c>
     </row>
-    <row r="39" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A39" s="5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B39" s="7">
         <v>16</v>
@@ -2355,9 +2356,9 @@
         <v>57</v>
       </c>
     </row>
-    <row r="40" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A40" s="5" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B40" s="7">
         <v>88</v>
@@ -2396,9 +2397,9 @@
         <v>67</v>
       </c>
     </row>
-    <row r="41" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A41" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B41" s="7">
         <v>14</v>
@@ -2437,9 +2438,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A42" s="5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B42" s="7">
         <v>54</v>
@@ -2478,9 +2479,9 @@
         <v>71</v>
       </c>
     </row>
-    <row r="43" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A43" s="5" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B43" s="7">
         <v>0</v>
@@ -2519,9 +2520,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="44" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A44" s="5" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B44" s="7">
         <v>5</v>
@@ -2560,9 +2561,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="45" spans="1:13" ht="18" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:13" ht="16.8" x14ac:dyDescent="0.45">
       <c r="A45" s="5" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B45" s="7">
         <v>26</v>
@@ -2601,9 +2602,9 @@
         <v>69</v>
       </c>
     </row>
-    <row r="46" spans="1:13" ht="18" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:13" ht="16.8" x14ac:dyDescent="0.45">
       <c r="A46" s="5" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B46" s="7">
         <v>13</v>
@@ -2642,9 +2643,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="1:13" ht="18" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:13" ht="16.8" x14ac:dyDescent="0.45">
       <c r="A47" s="5" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B47" s="7">
         <v>3</v>
@@ -2683,9 +2684,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="1:13" ht="18" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:13" ht="16.8" x14ac:dyDescent="0.45">
       <c r="A48" s="5" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B48" s="7">
         <v>4</v>
@@ -2724,9 +2725,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="49" spans="1:13" ht="18" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:13" ht="16.8" x14ac:dyDescent="0.45">
       <c r="A49" s="5" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B49" s="7">
         <v>84</v>
@@ -2765,9 +2766,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="50" spans="1:13" ht="18" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:13" ht="16.8" x14ac:dyDescent="0.45">
       <c r="A50" s="5" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B50" s="7">
         <v>9</v>
@@ -2806,9 +2807,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="51" spans="1:13" ht="18" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:13" ht="16.8" x14ac:dyDescent="0.45">
       <c r="A51" s="5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B51" s="7">
         <v>4</v>
@@ -2847,9 +2848,9 @@
         <v>54</v>
       </c>
     </row>
-    <row r="52" spans="1:13" ht="18" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:13" ht="16.8" x14ac:dyDescent="0.45">
       <c r="A52" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B52" s="7">
         <v>4</v>
@@ -2888,9 +2889,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="1:13" ht="18" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:13" ht="16.8" x14ac:dyDescent="0.45">
       <c r="A53" s="5" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B53" s="7">
         <v>31</v>
@@ -2929,9 +2930,9 @@
         <v>110</v>
       </c>
     </row>
-    <row r="54" spans="1:13" ht="18" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:13" ht="16.8" x14ac:dyDescent="0.45">
       <c r="A54" s="5" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B54" s="7">
         <v>35</v>
@@ -2970,9 +2971,9 @@
         <v>146</v>
       </c>
     </row>
-    <row r="55" spans="1:13" ht="18" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:13" ht="16.8" x14ac:dyDescent="0.45">
       <c r="A55" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B55" s="7">
         <v>2</v>
@@ -3011,9 +3012,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="56" spans="1:13" ht="18" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:13" ht="16.8" x14ac:dyDescent="0.45">
       <c r="A56" s="5" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B56" s="7">
         <v>3</v>
@@ -3052,9 +3053,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:13" ht="18" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:13" ht="16.8" x14ac:dyDescent="0.45">
       <c r="A57" s="5" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B57" s="7">
         <v>0</v>
@@ -3093,9 +3094,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:13" ht="18" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:13" ht="16.8" x14ac:dyDescent="0.45">
       <c r="A58" s="5" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B58" s="7">
         <v>68</v>
@@ -3134,9 +3135,9 @@
         <v>136</v>
       </c>
     </row>
-    <row r="59" spans="1:13" ht="18" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:13" ht="16.8" x14ac:dyDescent="0.45">
       <c r="A59" s="5" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B59" s="7">
         <v>26</v>
@@ -3175,9 +3176,9 @@
         <v>84</v>
       </c>
     </row>
-    <row r="60" spans="1:13" ht="18" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:13" ht="16.8" x14ac:dyDescent="0.45">
       <c r="A60" s="5" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B60" s="7">
         <v>3</v>
@@ -3216,9 +3217,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="61" spans="1:13" ht="18" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:13" ht="16.8" x14ac:dyDescent="0.45">
       <c r="A61" s="5" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B61" s="7">
         <v>27</v>
@@ -3257,9 +3258,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="62" spans="1:13" ht="18" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:13" ht="16.8" x14ac:dyDescent="0.45">
       <c r="A62" s="5" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B62" s="7">
         <v>14</v>
@@ -3298,9 +3299,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="63" spans="1:13" ht="18" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:13" ht="16.8" x14ac:dyDescent="0.45">
       <c r="A63" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B63" s="7">
         <v>4</v>
@@ -3339,9 +3340,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="64" spans="1:13" ht="18" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:13" ht="16.8" x14ac:dyDescent="0.45">
       <c r="A64" s="5" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B64" s="7">
         <v>2</v>
@@ -3380,9 +3381,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:13" ht="18" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:13" ht="16.8" x14ac:dyDescent="0.45">
       <c r="A65" s="5" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B65" s="7">
         <v>87</v>
@@ -3421,9 +3422,9 @@
         <v>123</v>
       </c>
     </row>
-    <row r="66" spans="1:13" ht="18" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:13" ht="16.8" x14ac:dyDescent="0.45">
       <c r="A66" s="5" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B66" s="7">
         <v>10</v>
@@ -3462,9 +3463,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="67" spans="1:13" ht="18" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:13" ht="16.8" x14ac:dyDescent="0.45">
       <c r="A67" s="5" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B67" s="7">
         <v>10</v>
@@ -3503,9 +3504,9 @@
         <v>35</v>
       </c>
     </row>
-    <row r="68" spans="1:13" ht="18" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:13" ht="16.8" x14ac:dyDescent="0.45">
       <c r="A68" s="5" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B68" s="7">
         <v>35</v>
@@ -3544,9 +3545,9 @@
         <v>47</v>
       </c>
     </row>
-    <row r="69" spans="1:13" ht="18" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:13" ht="16.8" x14ac:dyDescent="0.45">
       <c r="A69" s="5" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B69" s="7">
         <v>6</v>
@@ -3585,9 +3586,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="70" spans="1:13" ht="18" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:13" ht="16.8" x14ac:dyDescent="0.45">
       <c r="A70" s="5" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B70" s="7">
         <v>9</v>
@@ -3626,9 +3627,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="71" spans="1:13" ht="18" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:13" ht="16.8" x14ac:dyDescent="0.45">
       <c r="A71" s="5" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B71" s="7">
         <v>35</v>
@@ -3667,9 +3668,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="72" spans="1:13" ht="18" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:13" ht="16.8" x14ac:dyDescent="0.45">
       <c r="A72" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B72" s="7">
         <v>5</v>
@@ -3708,9 +3709,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="73" spans="1:13" ht="18" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:13" ht="16.8" x14ac:dyDescent="0.45">
       <c r="A73" s="5" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B73" s="7">
         <v>7</v>
@@ -3749,9 +3750,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="74" spans="1:13" ht="18" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:13" ht="16.8" x14ac:dyDescent="0.45">
       <c r="A74" s="5" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B74" s="7">
         <v>2</v>
@@ -3790,9 +3791,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:13" ht="18" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:13" ht="16.8" x14ac:dyDescent="0.45">
       <c r="A75" s="5" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B75" s="7">
         <v>3</v>
@@ -3831,9 +3832,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="76" spans="1:13" ht="18" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:13" ht="16.8" x14ac:dyDescent="0.45">
       <c r="A76" s="5" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B76" s="7">
         <v>0</v>
@@ -3872,9 +3873,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="77" spans="1:13" ht="18" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:13" ht="16.8" x14ac:dyDescent="0.45">
       <c r="A77" s="5" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B77" s="7">
         <v>15</v>
@@ -3913,9 +3914,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="78" spans="1:13" ht="18" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:13" ht="16.8" x14ac:dyDescent="0.45">
       <c r="A78" s="5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B78" s="7">
         <v>1</v>
@@ -3955,7 +3956,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M78">
+  <sortState ref="A2:M78">
     <sortCondition ref="A1:A78"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
